--- a/BackTest/2020-01-13 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-13 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -15532,7 +15532,7 @@
         <v>1774317.889336682</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>1774317.889336682</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-566081.6972633183</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-378011.1428633183</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-467528.8283633183</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-476947.6693633184</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-1029291.749463318</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-786311.8866633184</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-786311.8866633184</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-850144.3150633184</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-865877.9120633183</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-846563.3020633183</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-946640.2190633183</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-1773512.572463318</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-1936828.427763318</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-1862409.680063318</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-1853548.495063318</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>905277.3945243633</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>892592.4835243634</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>928366.0515243633</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>950180.4085243633</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>921327.2395243633</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>910973.4285243633</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>717780.272012045</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>665643.032012045</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>705403.516012045</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>649318.724012045</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>591740.8530120449</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>466709.3280120449</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>477845.1840120449</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>516584.1210120449</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>491718.1610120449</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-363821.9569879552</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-399122.0946879552</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-520265.9446879552</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-470168.1116879552</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-469008.3336879552</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1165845.156687955</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-1151341.364687955</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1151341.364687955</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1151341.364687955</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1198914.738687955</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1469208.497687955</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-1509975.510687955</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-1483179.703687955</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-1483179.703687955</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-1980698.502387956</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-3948758.004887955</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-8373946.586832812</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-8469032.470832812</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-7216462.390132811</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-7216462.390132811</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-7277141.20673281</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-7043533.734632811</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-7043533.734632811</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-7050290.48463281</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-7173262.71563281</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -35662,10 +35662,14 @@
         <v>-16814245.25779533</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>3.952</v>
+      </c>
       <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
@@ -35698,8 +35702,14 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35731,8 +35741,14 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35764,8 +35780,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35797,8 +35819,14 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35830,8 +35858,14 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35863,8 +35897,14 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35896,8 +35936,14 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35929,8 +35975,14 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35959,11 +36011,19 @@
         <v>-17475434.17389533</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35995,8 +36055,14 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36025,11 +36091,19 @@
         <v>-17475907.85689534</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36058,11 +36132,19 @@
         <v>-17473369.07689533</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +36173,19 @@
         <v>-17473369.07689533</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36124,11 +36214,19 @@
         <v>-17474548.46189534</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36160,8 +36258,14 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36190,11 +36294,19 @@
         <v>-17465891.43209533</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36223,11 +36335,19 @@
         <v>-17469626.90409533</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36259,8 +36379,14 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36292,8 +36418,14 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36325,8 +36457,14 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36358,8 +36496,14 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36391,8 +36535,14 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36424,8 +36574,14 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36457,8 +36613,14 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36490,8 +36652,14 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36523,8 +36691,14 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36556,8 +36730,14 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36589,8 +36769,14 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36622,8 +36808,14 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36655,8 +36847,14 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36688,8 +36886,14 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36721,8 +36925,14 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36754,8 +36964,14 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36787,8 +37003,14 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36820,8 +37042,14 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -36853,8 +37081,14 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36886,8 +37120,14 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36919,8 +37159,14 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -36952,8 +37198,14 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -36985,8 +37237,14 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37018,8 +37276,14 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37051,8 +37315,14 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37084,8 +37354,14 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37117,8 +37393,14 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37150,8 +37432,14 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37183,8 +37471,14 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37216,8 +37510,14 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37249,8 +37549,14 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37279,11 +37585,19 @@
         <v>-17465433.05309534</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37315,8 +37629,14 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +37665,19 @@
         <v>-17465926.02609534</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37381,8 +37709,14 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37414,8 +37748,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37447,8 +37787,14 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37480,8 +37826,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37510,11 +37862,19 @@
         <v>-17458095.76309534</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37543,11 +37903,19 @@
         <v>-17461101.47809534</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37576,15 +37944,19 @@
         <v>-17460972.49509534</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1127" t="n">
         <v>3.953</v>
       </c>
       <c r="J1127" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="K1127" t="inlineStr"/>
+        <v>3.952</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37613,17 +37985,17 @@
         <v>-17713114.29399534</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1128" t="n">
         <v>3.954</v>
       </c>
       <c r="J1128" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1128" t="n">
@@ -37654,13 +38026,13 @@
         <v>-17713114.29399534</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1129" t="n">
         <v>3.95</v>
       </c>
       <c r="J1129" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -37695,11 +38067,13 @@
         <v>-17711006.53599534</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J1130" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -37734,11 +38108,13 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>3.951</v>
+      </c>
       <c r="J1131" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -37773,11 +38149,13 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J1132" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -37812,13 +38190,13 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133" t="n">
         <v>3.95</v>
       </c>
       <c r="J1133" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -37853,11 +38231,13 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J1134" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -37892,13 +38272,13 @@
         <v>-17712241.91699534</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1135" t="n">
         <v>3.95</v>
       </c>
       <c r="J1135" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -37933,11 +38313,13 @@
         <v>-17707629.19999534</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>3.951</v>
+      </c>
       <c r="J1136" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -37972,11 +38354,13 @@
         <v>-17707629.19999534</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>3.953</v>
+      </c>
       <c r="J1137" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -38011,11 +38395,13 @@
         <v>-18449449.78980364</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>3.953</v>
+      </c>
       <c r="J1138" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38050,13 +38436,11 @@
         <v>-18475988.41160364</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>3.943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38095,7 +38479,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38130,11 +38514,13 @@
         <v>-18469244.16560364</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>3.943</v>
+      </c>
       <c r="J1141" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38169,13 +38555,13 @@
         <v>-18469481.33660364</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1142" t="n">
         <v>3.944</v>
       </c>
       <c r="J1142" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38210,13 +38596,13 @@
         <v>-18467711.99060364</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1143" t="n">
         <v>3.943</v>
       </c>
       <c r="J1143" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38251,13 +38637,13 @@
         <v>-18469019.43660364</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1144" t="n">
         <v>3.945</v>
       </c>
       <c r="J1144" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38292,13 +38678,13 @@
         <v>-18470871.02360364</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1145" t="n">
         <v>3.944</v>
       </c>
       <c r="J1145" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38333,13 +38719,13 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="n">
         <v>3.943</v>
       </c>
       <c r="J1146" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38374,13 +38760,13 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="n">
         <v>3.944</v>
       </c>
       <c r="J1147" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38415,13 +38801,13 @@
         <v>-18468242.07360364</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1148" t="n">
         <v>3.944</v>
       </c>
       <c r="J1148" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38456,13 +38842,13 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1149" t="n">
         <v>3.945</v>
       </c>
       <c r="J1149" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -38497,13 +38883,13 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1150" t="n">
         <v>3.944</v>
       </c>
       <c r="J1150" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -38538,13 +38924,13 @@
         <v>-18464493.67060364</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1151" t="n">
         <v>3.944</v>
       </c>
       <c r="J1151" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38579,13 +38965,13 @@
         <v>-18464709.35960364</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1152" t="n">
         <v>3.946</v>
       </c>
       <c r="J1152" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -38620,13 +39006,13 @@
         <v>-18464158.50460364</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1153" t="n">
         <v>3.945</v>
       </c>
       <c r="J1153" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -38661,13 +39047,13 @@
         <v>-18465110.91360364</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1154" t="n">
         <v>3.946</v>
       </c>
       <c r="J1154" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -38702,13 +39088,13 @@
         <v>-18462501.45260364</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1155" t="n">
         <v>3.945</v>
       </c>
       <c r="J1155" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -38743,13 +39129,13 @@
         <v>-18464426.95660364</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1156" t="n">
         <v>3.947</v>
       </c>
       <c r="J1156" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -38784,13 +39170,13 @@
         <v>-18466820.23390364</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1157" t="n">
         <v>3.946</v>
       </c>
       <c r="J1157" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -38825,13 +39211,13 @@
         <v>-18463165.37290364</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1158" t="n">
         <v>3.943</v>
       </c>
       <c r="J1158" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -38866,13 +39252,13 @@
         <v>-18460513.41590364</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1159" t="n">
         <v>3.944</v>
       </c>
       <c r="J1159" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -38907,13 +39293,13 @@
         <v>-18463319.46190364</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1160" t="n">
         <v>3.945</v>
       </c>
       <c r="J1160" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -38948,13 +39334,13 @@
         <v>-18460272.41790364</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1161" t="n">
         <v>3.944</v>
       </c>
       <c r="J1161" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -38989,13 +39375,13 @@
         <v>-18462476.90690364</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1162" t="n">
         <v>3.945</v>
       </c>
       <c r="J1162" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39030,13 +39416,13 @@
         <v>-18462476.90690364</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1163" t="n">
         <v>3.944</v>
       </c>
       <c r="J1163" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39071,13 +39457,13 @@
         <v>-18459249.48690364</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1164" t="n">
         <v>3.944</v>
       </c>
       <c r="J1164" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39112,13 +39498,13 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1165" t="n">
         <v>3.945</v>
       </c>
       <c r="J1165" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39153,13 +39539,13 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1166" t="n">
         <v>3.944</v>
       </c>
       <c r="J1166" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39194,13 +39580,13 @@
         <v>-18466679.82690364</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1167" t="n">
         <v>3.944</v>
       </c>
       <c r="J1167" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39235,13 +39621,13 @@
         <v>-18465341.92190364</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1168" t="n">
         <v>3.945</v>
       </c>
       <c r="J1168" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39276,13 +39662,13 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1169" t="n">
         <v>3.946</v>
       </c>
       <c r="J1169" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39317,13 +39703,13 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1170" t="n">
         <v>3.944</v>
       </c>
       <c r="J1170" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39358,13 +39744,13 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1171" t="n">
         <v>3.944</v>
       </c>
       <c r="J1171" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39399,13 +39785,13 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1172" t="n">
         <v>3.944</v>
       </c>
       <c r="J1172" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39440,13 +39826,13 @@
         <v>-18460946.15590364</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1173" t="n">
         <v>3.944</v>
       </c>
       <c r="J1173" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39481,13 +39867,13 @@
         <v>-18469211.66190364</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1174" t="n">
         <v>3.946</v>
       </c>
       <c r="J1174" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39522,11 +39908,13 @@
         <v>-18479361.70290364</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1175" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39561,11 +39949,13 @@
         <v>-18454647.35290364</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1176" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39600,11 +39990,13 @@
         <v>-18455139.73890364</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1177" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39639,13 +40031,13 @@
         <v>-18456945.44490364</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1178" t="n">
         <v>3.945</v>
       </c>
       <c r="J1178" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39680,13 +40072,13 @@
         <v>-18454595.85190364</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1179" t="n">
         <v>3.944</v>
       </c>
       <c r="J1179" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -39721,11 +40113,13 @@
         <v>-18454595.85190364</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1180" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39760,11 +40154,13 @@
         <v>-18450325.18290364</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1181" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -39799,11 +40195,13 @@
         <v>-18451117.57290364</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1182" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -39838,11 +40236,13 @@
         <v>-18448528.64890365</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1183" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -39877,11 +40277,13 @@
         <v>-18448528.64890365</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1184" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -39916,11 +40318,13 @@
         <v>-18452566.98390365</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1185" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39955,11 +40359,13 @@
         <v>-18452566.98390365</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1186" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -39994,11 +40400,13 @@
         <v>-18452566.98390365</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1187" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40033,11 +40441,13 @@
         <v>-18451749.86490365</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1188" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40072,11 +40482,13 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1189" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40111,11 +40523,13 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1190" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40150,11 +40564,13 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1191" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40189,11 +40605,13 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1192" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40228,11 +40646,13 @@
         <v>-18453216.45690365</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1193" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40267,11 +40687,13 @@
         <v>-18449016.97790365</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1194" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40306,11 +40728,13 @@
         <v>-18446066.21890365</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1195" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40345,11 +40769,13 @@
         <v>-18442515.81290365</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J1196" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40384,13 +40810,13 @@
         <v>-18442235.90490365</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1197" t="n">
         <v>3.948</v>
       </c>
       <c r="J1197" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40425,11 +40851,13 @@
         <v>-18439846.19690365</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>3.949</v>
+      </c>
       <c r="J1198" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40464,11 +40892,13 @@
         <v>-18437727.90190365</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>3.951</v>
+      </c>
       <c r="J1199" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40503,11 +40933,13 @@
         <v>-18440176.08590365</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>3.952</v>
+      </c>
       <c r="J1200" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40542,11 +40974,13 @@
         <v>-18437342.20090365</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>3.951</v>
+      </c>
       <c r="J1201" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40581,11 +41015,13 @@
         <v>-18438387.23190365</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>3.952</v>
+      </c>
       <c r="J1202" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40620,11 +41056,13 @@
         <v>-18440009.84390365</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J1203" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40659,11 +41097,13 @@
         <v>-18441972.61690364</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>3.949</v>
+      </c>
       <c r="J1204" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40698,11 +41138,13 @@
         <v>-18439340.03390364</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>3.948</v>
+      </c>
       <c r="J1205" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40737,11 +41179,13 @@
         <v>-18446723.05190364</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>3.949</v>
+      </c>
       <c r="J1206" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -40776,11 +41220,13 @@
         <v>-18446883.42790364</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J1207" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -40815,11 +41261,13 @@
         <v>-18446372.77790364</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1208" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40854,13 +41302,13 @@
         <v>-18433782.41090364</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1209" t="n">
         <v>3.947</v>
       </c>
       <c r="J1209" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -40895,11 +41343,13 @@
         <v>-18445758.23490364</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>3.949</v>
+      </c>
       <c r="J1210" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40934,11 +41384,13 @@
         <v>-18458918.42890364</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>3.948</v>
+      </c>
       <c r="J1211" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40973,11 +41425,13 @@
         <v>-18458697.57090364</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J1212" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41012,11 +41466,13 @@
         <v>-18460563.02490364</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3.948</v>
+      </c>
       <c r="J1213" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -41051,11 +41507,13 @@
         <v>-18460563.02490364</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1214" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -41090,11 +41548,13 @@
         <v>-18460563.02490364</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1215" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41129,11 +41589,13 @@
         <v>-18457487.19690364</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1216" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -41168,13 +41630,13 @@
         <v>-18457487.19690364</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1217" t="n">
         <v>3.947</v>
       </c>
       <c r="J1217" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -41209,13 +41671,13 @@
         <v>-18458364.27390364</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1218" t="n">
         <v>3.947</v>
       </c>
       <c r="J1218" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41250,11 +41712,13 @@
         <v>-18457178.59990364</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1219" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -41289,11 +41753,13 @@
         <v>-18461038.92290364</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J1220" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -41328,11 +41794,13 @@
         <v>-18461038.92290364</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1221" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41367,11 +41835,13 @@
         <v>-18461038.92290364</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1222" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -41406,11 +41876,13 @@
         <v>-18460245.64890364</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1223" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41445,11 +41917,13 @@
         <v>-18460245.64890364</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3.947</v>
+      </c>
       <c r="J1224" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -41484,13 +41958,13 @@
         <v>-18457827.93790364</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1225" t="n">
         <v>3.947</v>
       </c>
       <c r="J1225" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -41525,11 +41999,13 @@
         <v>-18460690.05490364</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3.948</v>
+      </c>
       <c r="J1226" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -41564,13 +42040,13 @@
         <v>-18460560.87590364</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1227" t="n">
         <v>3.947</v>
       </c>
       <c r="J1227" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41605,13 +42081,13 @@
         <v>-18460560.87590364</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1228" t="n">
         <v>3.948</v>
       </c>
       <c r="J1228" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -41646,13 +42122,13 @@
         <v>-18459510.67290364</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1229" t="n">
         <v>3.948</v>
       </c>
       <c r="J1229" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -41687,13 +42163,13 @@
         <v>-18460998.19490364</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1230" t="n">
         <v>3.949</v>
       </c>
       <c r="J1230" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41728,13 +42204,13 @@
         <v>-18460998.19490364</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1231" t="n">
         <v>3.948</v>
       </c>
       <c r="J1231" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41769,13 +42245,13 @@
         <v>-18469646.55590364</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1232" t="n">
         <v>3.948</v>
       </c>
       <c r="J1232" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41810,13 +42286,13 @@
         <v>-18488211.63890364</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1233" t="n">
         <v>3.947</v>
       </c>
       <c r="J1233" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41851,13 +42327,13 @@
         <v>-18488211.63890364</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1234" t="n">
         <v>3.946</v>
       </c>
       <c r="J1234" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41892,13 +42368,13 @@
         <v>-18488211.63890364</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1235" t="n">
         <v>3.946</v>
       </c>
       <c r="J1235" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41933,13 +42409,13 @@
         <v>-18430120.85290364</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1236" t="n">
         <v>3.946</v>
       </c>
       <c r="J1236" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -41974,13 +42450,13 @@
         <v>-18425578.60190364</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1237" t="n">
         <v>3.947</v>
       </c>
       <c r="J1237" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -42015,13 +42491,13 @@
         <v>-18433463.88090364</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1238" t="n">
         <v>3.948</v>
       </c>
       <c r="J1238" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -42056,13 +42532,13 @@
         <v>-18471375.58890364</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1239" t="n">
         <v>3.947</v>
       </c>
       <c r="J1239" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -42097,13 +42573,13 @@
         <v>-18442019.83190364</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1240" t="n">
         <v>3.946</v>
       </c>
       <c r="J1240" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -42138,13 +42614,13 @@
         <v>-18408100.75990364</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1241" t="n">
         <v>3.947</v>
       </c>
       <c r="J1241" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -42179,13 +42655,13 @@
         <v>-18402598.84290364</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1242" t="n">
         <v>3.948</v>
       </c>
       <c r="J1242" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -42220,13 +42696,13 @@
         <v>-18395082.17290364</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1243" t="n">
         <v>3.95</v>
       </c>
       <c r="J1243" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -42261,13 +42737,13 @@
         <v>-18404608.13690364</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1244" t="n">
         <v>3.951</v>
       </c>
       <c r="J1244" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -42302,13 +42778,13 @@
         <v>-18391580.81490364</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1245" t="n">
         <v>3.95</v>
       </c>
       <c r="J1245" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -42343,13 +42819,13 @@
         <v>-18391580.81490364</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1246" t="n">
         <v>3.951</v>
       </c>
       <c r="J1246" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -42384,13 +42860,13 @@
         <v>-18388230.21890364</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1247" t="n">
         <v>3.951</v>
       </c>
       <c r="J1247" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42425,11 +42901,13 @@
         <v>-18379033.01090364</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>3.952</v>
+      </c>
       <c r="J1248" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42464,11 +42942,13 @@
         <v>-18379033.01090364</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>3.953</v>
+      </c>
       <c r="J1249" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42503,11 +42983,13 @@
         <v>-18379033.01090364</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>3.953</v>
+      </c>
       <c r="J1250" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42542,11 +43024,13 @@
         <v>-18405988.14390364</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>3.953</v>
+      </c>
       <c r="J1251" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42581,11 +43065,13 @@
         <v>-18405988.14390364</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>3.952</v>
+      </c>
       <c r="J1252" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42620,11 +43106,13 @@
         <v>-18412665.82790364</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>3.952</v>
+      </c>
       <c r="J1253" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42659,13 +43147,13 @@
         <v>-18539770.31370365</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>3.949</v>
       </c>
       <c r="J1254" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -42700,13 +43188,13 @@
         <v>-19299505.40790365</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>3.945</v>
       </c>
       <c r="J1255" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42741,13 +43229,11 @@
         <v>-19975629.93290364</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42782,13 +43268,11 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>3.943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42823,13 +43307,11 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1258" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42868,7 +43350,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42903,13 +43385,13 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1260" t="n">
         <v>3.943</v>
       </c>
       <c r="J1260" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42944,13 +43426,13 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1261" t="n">
         <v>3.943</v>
       </c>
       <c r="J1261" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42985,11 +43467,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>3.943</v>
+      </c>
       <c r="J1262" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -43024,13 +43508,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1263" t="n">
         <v>3.942</v>
       </c>
       <c r="J1263" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -43065,13 +43549,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>3.942</v>
       </c>
       <c r="J1264" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -43106,13 +43590,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>3.942</v>
       </c>
       <c r="J1265" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43147,13 +43631,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>3.942</v>
       </c>
       <c r="J1266" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43188,13 +43672,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>3.942</v>
       </c>
       <c r="J1267" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43229,13 +43713,13 @@
         <v>-21123958.12590364</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>3.942</v>
       </c>
       <c r="J1268" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43270,13 +43754,13 @@
         <v>-20932323.38390364</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1269" t="n">
         <v>3.941</v>
       </c>
       <c r="J1269" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43311,13 +43795,13 @@
         <v>-20932323.38390364</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1270" t="n">
         <v>3.942</v>
       </c>
       <c r="J1270" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43352,13 +43836,13 @@
         <v>-20932323.38390364</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1271" t="n">
         <v>3.942</v>
       </c>
       <c r="J1271" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43393,13 +43877,13 @@
         <v>-20932323.38390364</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1272" t="n">
         <v>3.942</v>
       </c>
       <c r="J1272" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -43434,13 +43918,13 @@
         <v>-21150124.04940365</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1273" t="n">
         <v>3.942</v>
       </c>
       <c r="J1273" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43475,13 +43959,13 @@
         <v>-19981645.19630364</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>3.941</v>
       </c>
       <c r="J1274" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -43516,13 +44000,11 @@
         <v>-20042007.13430364</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1275" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -43561,7 +44043,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -43600,7 +44082,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -43639,7 +44121,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43678,7 +44160,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43717,7 +44199,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43756,7 +44238,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43795,7 +44277,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43834,7 +44316,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43873,7 +44355,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43912,7 +44394,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43951,7 +44433,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43990,7 +44472,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -44029,7 +44511,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -44068,7 +44550,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>3.953</v>
+        <v>3.952</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -44081,6 +44563,6 @@
       <c r="M1289" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-13 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -16258,7 +16258,7 @@
         <v>-1862409.680063318</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1813483.231063318</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1742508.865063318</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1751162.790063318</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>905277.3945243633</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>892592.4835243634</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>928366.0515243633</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>950180.4085243633</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>921327.2395243633</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>910973.4285243633</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>717780.272012045</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>665643.032012045</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>705403.516012045</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>649318.724012045</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>591740.8530120449</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>466709.3280120449</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>477845.1840120449</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>516584.1210120449</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>491718.1610120449</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-363821.9569879552</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-399122.0946879552</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-520265.9446879552</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-470168.1116879552</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-469008.3336879552</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-1165845.156687955</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-1151341.364687955</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-1151341.364687955</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-1151341.364687955</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-1198914.738687955</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-1469208.497687955</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-1509975.510687955</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-1483179.703687955</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-1483179.703687955</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-1980698.502387956</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-3948758.004887955</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-8469032.470832812</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-8269870.246032812</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-8322748.739632811</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-8350823.083032811</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-7131893.878832811</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-7133923.354832811</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -35662,14 +35662,10 @@
         <v>-16814245.25779533</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="J1069" t="n">
-        <v>3.952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
@@ -35702,3487 +35698,2915 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
+      <c r="L1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>603570.7993</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>-17415551.95909533</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
+      <c r="L1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>244.981</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>-17415306.97809533</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
+      <c r="L1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>720.516</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>-17416027.49409533</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
+      <c r="L1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>2388.458</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>-17413639.03609533</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
+      <c r="L1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="n">
         <v>3.952</v>
       </c>
-      <c r="K1070" t="inlineStr">
+      <c r="C1075" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>1798.252</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>-17411840.78409533</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
+      <c r="L1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>2146.335</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>-17409694.44909533</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
+      <c r="L1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>149.726</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>-17409544.72309533</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr"/>
+      <c r="L1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>65889.45080000001</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>-17475434.17389533</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr"/>
+      <c r="L1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>1186.751</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>-17474247.42289533</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr"/>
+      <c r="L1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>1660.434</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>-17475907.85689534</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr"/>
+      <c r="L1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>2538.78</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>-17473369.07689533</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr"/>
+      <c r="L1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>4401.845</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>-17473369.07689533</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
+      <c r="L1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>1179.385</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>-17474548.46189534</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
+      <c r="L1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>2024.78</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>-17472523.68189533</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>6632.2498</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>-17465891.43209533</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
+      <c r="L1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>3735.472</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>-17469626.90409533</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
+      <c r="L1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>312.6</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>-17469314.30409533</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
+      <c r="L1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>736.427</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>-17469314.30409533</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>2975.075</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>-17469314.30409533</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr"/>
+      <c r="L1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>2345.298</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>-17469314.30409533</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr"/>
+      <c r="L1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>2918.798</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>-17472233.10209533</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr"/>
+      <c r="L1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>414.614</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>-17472647.71609533</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr"/>
+      <c r="L1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>476.474</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>-17472171.24209533</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr"/>
+      <c r="L1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>964.937</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>-17471206.30509533</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr"/>
+      <c r="L1094" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>1203.992</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>-17470002.31309533</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
+      <c r="J1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr"/>
+      <c r="L1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>3915.144</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>-17473917.45709534</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
+      <c r="J1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr"/>
+      <c r="L1096" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>366.814</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>-17474284.27109534</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
+      <c r="J1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr"/>
+      <c r="L1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>644.764</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>-17473639.50709534</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
+      <c r="J1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr"/>
+      <c r="L1098" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>1080.602</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>-17472558.90509534</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
+      <c r="J1099" t="inlineStr"/>
+      <c r="K1099" t="inlineStr"/>
+      <c r="L1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>3135.762</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>-17472558.90509534</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
+      <c r="J1100" t="inlineStr"/>
+      <c r="K1100" t="inlineStr"/>
+      <c r="L1100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>3.949</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>2261.555</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>-17474820.46009533</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
+      <c r="J1101" t="inlineStr"/>
+      <c r="K1101" t="inlineStr"/>
+      <c r="L1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>129.113</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>-17474691.34709533</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
+      <c r="J1102" t="inlineStr"/>
+      <c r="K1102" t="inlineStr"/>
+      <c r="L1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>2775.979</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>-17471915.36809533</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
+      <c r="J1103" t="inlineStr"/>
+      <c r="K1103" t="inlineStr"/>
+      <c r="L1103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>2562.235</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>-17474477.60309533</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
+      <c r="J1104" t="inlineStr"/>
+      <c r="K1104" t="inlineStr"/>
+      <c r="L1104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>2920.124</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>-17474477.60309533</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
+      <c r="J1105" t="inlineStr"/>
+      <c r="K1105" t="inlineStr"/>
+      <c r="L1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>3324.68</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>-17471152.92309533</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
+      <c r="L1106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>473.514</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>-17471152.92309533</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
+      <c r="J1107" t="inlineStr"/>
+      <c r="K1107" t="inlineStr"/>
+      <c r="L1107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>634.808</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>-17470518.11509534</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
+      <c r="J1108" t="inlineStr"/>
+      <c r="K1108" t="inlineStr"/>
+      <c r="L1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>860.337</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>-17471378.45209534</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
+      <c r="L1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>2429.778</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>-17468948.67409534</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
+      <c r="L1110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>1657.48</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>-17467291.19409534</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
+      <c r="J1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr"/>
+      <c r="L1111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>3.955</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>251.275</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>-17467039.91909534</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
+      <c r="L1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>455.173</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>-17467495.09209534</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
+      <c r="L1113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>1809.02</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>-17469304.11209534</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
+      <c r="L1114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>1436.006</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>-17470740.11809534</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
+      <c r="L1115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>2702.152</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>-17468037.96609534</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1116" t="inlineStr"/>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
+      <c r="L1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>280.867</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>-17468318.83309534</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>2885.78</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>-17465433.05309534</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
+      <c r="L1118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>2354.231</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>-17463078.82209534</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
+      <c r="L1119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>2847.204</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>-17465926.02609534</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
+      <c r="L1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>7361.24</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>-17458564.78609534</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>415.213</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>-17458979.99909534</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
+      <c r="L1122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>884.236</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>-17458095.76309534</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>1611.28</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>-17458095.76309534</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>5120.471</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>-17458095.76309534</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
+      <c r="L1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>3005.715</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>-17461101.47809534</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
+      <c r="L1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>128.983</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>-17460972.49509534</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>252141.7989</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>-17713114.29399534</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
+      <c r="L1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>2295.689</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>-17713114.29399534</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>2107.758</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>-17711006.53599534</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
+      <c r="L1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>2663.252</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>-17713669.78799534</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
+      <c r="L1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>146.973</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>-17713669.78799534</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1132" t="inlineStr"/>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
+      <c r="L1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>1243.109</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>-17713669.78799534</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>1252.819</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>-17713669.78799534</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
+      <c r="L1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>1427.871</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>-17712241.91699534</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
+      <c r="L1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>3.952</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>4612.717</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>-17707629.19999534</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>327.773</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-17707629.19999534</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>741820.5898082954</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>-18449449.78980364</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>26538.6218</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>-18475988.41160364</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>4332.321</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>-18471656.09060364</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>2411.925</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>-18469244.16560364</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
+      <c r="L1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>237.171</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>-18469481.33660364</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>1769.346</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>-18467711.99060364</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>1307.446</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>-18469019.43660364</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
+      <c r="L1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>1851.587</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>-18470871.02360364</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
+      <c r="L1145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>2178.974</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>-18468692.04960364</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>381.35</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>-18468692.04960364</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr"/>
+      <c r="L1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>449.976</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>-18468242.07360364</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>787.657</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-18469029.73060364</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>962.655</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-18469029.73060364</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>4536.06</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-18464493.67060364</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>215.689</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-18464709.35960364</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K1152" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1070" t="inlineStr"/>
-    </row>
-    <row r="1071">
-      <c r="A1071" s="1" t="n">
-        <v>1069</v>
-      </c>
-      <c r="B1071" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1071" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1071" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1071" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="F1071" t="n">
-        <v>603570.7993</v>
-      </c>
-      <c r="G1071" t="n">
-        <v>-17415551.95909533</v>
-      </c>
-      <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1071" t="inlineStr">
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>550.855</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-18464158.50460364</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>952.409</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-18465110.91360364</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>2609.461</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-18462501.45260364</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>1925.504</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-18464426.95660364</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>2393.2773</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>-18466820.23390364</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="K1157" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1071" t="inlineStr"/>
-    </row>
-    <row r="1072">
-      <c r="A1072" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B1072" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1072" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1072" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1072" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1072" t="n">
-        <v>244.981</v>
-      </c>
-      <c r="G1072" t="n">
-        <v>-17415306.97809533</v>
-      </c>
-      <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1072" t="inlineStr"/>
-    </row>
-    <row r="1073">
-      <c r="A1073" s="1" t="n">
-        <v>1071</v>
-      </c>
-      <c r="B1073" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1073" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1073" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1073" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1073" t="n">
-        <v>720.516</v>
-      </c>
-      <c r="G1073" t="n">
-        <v>-17416027.49409533</v>
-      </c>
-      <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1073" t="inlineStr"/>
-    </row>
-    <row r="1074">
-      <c r="A1074" s="1" t="n">
-        <v>1072</v>
-      </c>
-      <c r="B1074" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1074" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1074" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1074" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1074" t="n">
-        <v>2388.458</v>
-      </c>
-      <c r="G1074" t="n">
-        <v>-17413639.03609533</v>
-      </c>
-      <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1074" t="inlineStr"/>
-    </row>
-    <row r="1075">
-      <c r="A1075" s="1" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1075" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="D1075" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="E1075" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1075" t="n">
-        <v>1798.252</v>
-      </c>
-      <c r="G1075" t="n">
-        <v>-17411840.78409533</v>
-      </c>
-      <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1075" t="inlineStr"/>
-    </row>
-    <row r="1076">
-      <c r="A1076" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1076" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1076" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1076" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="F1076" t="n">
-        <v>2146.335</v>
-      </c>
-      <c r="G1076" t="n">
-        <v>-17409694.44909533</v>
-      </c>
-      <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1076" t="inlineStr"/>
-    </row>
-    <row r="1077">
-      <c r="A1077" s="1" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1077" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1077" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1077" t="n">
-        <v>149.726</v>
-      </c>
-      <c r="G1077" t="n">
-        <v>-17409544.72309533</v>
-      </c>
-      <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1077" t="inlineStr"/>
-    </row>
-    <row r="1078">
-      <c r="A1078" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1078" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="D1078" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1078" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="F1078" t="n">
-        <v>65889.45080000001</v>
-      </c>
-      <c r="G1078" t="n">
-        <v>-17475434.17389533</v>
-      </c>
-      <c r="H1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1078" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="J1078" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1078" t="inlineStr"/>
-    </row>
-    <row r="1079">
-      <c r="A1079" s="1" t="n">
-        <v>1077</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1079" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1079" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1079" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1079" t="n">
-        <v>1186.751</v>
-      </c>
-      <c r="G1079" t="n">
-        <v>-17474247.42289533</v>
-      </c>
-      <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1079" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1079" t="inlineStr"/>
-    </row>
-    <row r="1080">
-      <c r="A1080" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="C1080" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="D1080" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="E1080" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="F1080" t="n">
-        <v>1660.434</v>
-      </c>
-      <c r="G1080" t="n">
-        <v>-17475907.85689534</v>
-      </c>
-      <c r="H1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1080" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1080" t="inlineStr"/>
-    </row>
-    <row r="1081">
-      <c r="A1081" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1081" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1081" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1081" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1081" t="n">
-        <v>2538.78</v>
-      </c>
-      <c r="G1081" t="n">
-        <v>-17473369.07689533</v>
-      </c>
-      <c r="H1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="J1081" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1081" t="inlineStr"/>
-    </row>
-    <row r="1082">
-      <c r="A1082" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1082" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1082" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1082" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1082" t="n">
-        <v>4401.845</v>
-      </c>
-      <c r="G1082" t="n">
-        <v>-17473369.07689533</v>
-      </c>
-      <c r="H1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1082" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1082" t="inlineStr"/>
-    </row>
-    <row r="1083">
-      <c r="A1083" s="1" t="n">
-        <v>1081</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="C1083" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="D1083" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="E1083" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="F1083" t="n">
-        <v>1179.385</v>
-      </c>
-      <c r="G1083" t="n">
-        <v>-17474548.46189534</v>
-      </c>
-      <c r="H1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1083" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1083" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1083" t="inlineStr"/>
-    </row>
-    <row r="1084">
-      <c r="A1084" s="1" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1084" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1084" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1084" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1084" t="n">
-        <v>2024.78</v>
-      </c>
-      <c r="G1084" t="n">
-        <v>-17472523.68189533</v>
-      </c>
-      <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1084" t="inlineStr"/>
-    </row>
-    <row r="1085">
-      <c r="A1085" s="1" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1085" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="D1085" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="E1085" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1085" t="n">
-        <v>6632.2498</v>
-      </c>
-      <c r="G1085" t="n">
-        <v>-17465891.43209533</v>
-      </c>
-      <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1085" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1085" t="inlineStr"/>
-    </row>
-    <row r="1086">
-      <c r="A1086" s="1" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>3.963</v>
-      </c>
-      <c r="C1086" t="n">
-        <v>3.963</v>
-      </c>
-      <c r="D1086" t="n">
-        <v>3.963</v>
-      </c>
-      <c r="E1086" t="n">
-        <v>3.963</v>
-      </c>
-      <c r="F1086" t="n">
-        <v>3735.472</v>
-      </c>
-      <c r="G1086" t="n">
-        <v>-17469626.90409533</v>
-      </c>
-      <c r="H1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1086" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J1086" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" s="1" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="C1087" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="D1087" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="E1087" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="F1087" t="n">
-        <v>312.6</v>
-      </c>
-      <c r="G1087" t="n">
-        <v>-17469314.30409533</v>
-      </c>
-      <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1087" t="inlineStr"/>
-    </row>
-    <row r="1088">
-      <c r="A1088" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="D1088" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="E1088" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="F1088" t="n">
-        <v>736.427</v>
-      </c>
-      <c r="G1088" t="n">
-        <v>-17469314.30409533</v>
-      </c>
-      <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1088" t="inlineStr"/>
-    </row>
-    <row r="1089">
-      <c r="A1089" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="D1089" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="F1089" t="n">
-        <v>2975.075</v>
-      </c>
-      <c r="G1089" t="n">
-        <v>-17469314.30409533</v>
-      </c>
-      <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1089" t="inlineStr"/>
-    </row>
-    <row r="1090">
-      <c r="A1090" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="D1090" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="E1090" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="F1090" t="n">
-        <v>2345.298</v>
-      </c>
-      <c r="G1090" t="n">
-        <v>-17469314.30409533</v>
-      </c>
-      <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1090" t="inlineStr"/>
-    </row>
-    <row r="1091">
-      <c r="A1091" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="D1091" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="E1091" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="F1091" t="n">
-        <v>2918.798</v>
-      </c>
-      <c r="G1091" t="n">
-        <v>-17472233.10209533</v>
-      </c>
-      <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1091" t="inlineStr"/>
-    </row>
-    <row r="1092">
-      <c r="A1092" s="1" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="C1092" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="D1092" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="E1092" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="F1092" t="n">
-        <v>414.614</v>
-      </c>
-      <c r="G1092" t="n">
-        <v>-17472647.71609533</v>
-      </c>
-      <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1092" t="inlineStr"/>
-    </row>
-    <row r="1093">
-      <c r="A1093" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C1093" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D1093" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E1093" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F1093" t="n">
-        <v>476.474</v>
-      </c>
-      <c r="G1093" t="n">
-        <v>-17472171.24209533</v>
-      </c>
-      <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1093" t="inlineStr"/>
-    </row>
-    <row r="1094">
-      <c r="A1094" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="C1094" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="D1094" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="E1094" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="F1094" t="n">
-        <v>964.937</v>
-      </c>
-      <c r="G1094" t="n">
-        <v>-17471206.30509533</v>
-      </c>
-      <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1094" t="inlineStr"/>
-    </row>
-    <row r="1095">
-      <c r="A1095" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="C1095" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="D1095" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="E1095" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="F1095" t="n">
-        <v>1203.992</v>
-      </c>
-      <c r="G1095" t="n">
-        <v>-17470002.31309533</v>
-      </c>
-      <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" s="1" t="n">
-        <v>1094</v>
-      </c>
-      <c r="B1096" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="C1096" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D1096" t="n">
-        <v>3.962</v>
-      </c>
-      <c r="E1096" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F1096" t="n">
-        <v>3915.144</v>
-      </c>
-      <c r="G1096" t="n">
-        <v>-17473917.45709534</v>
-      </c>
-      <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1096" t="inlineStr"/>
-    </row>
-    <row r="1097">
-      <c r="A1097" s="1" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B1097" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="C1097" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="D1097" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="E1097" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="F1097" t="n">
-        <v>366.814</v>
-      </c>
-      <c r="G1097" t="n">
-        <v>-17474284.27109534</v>
-      </c>
-      <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1097" t="inlineStr"/>
-    </row>
-    <row r="1098">
-      <c r="A1098" s="1" t="n">
-        <v>1096</v>
-      </c>
-      <c r="B1098" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="C1098" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="D1098" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="E1098" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="F1098" t="n">
-        <v>644.764</v>
-      </c>
-      <c r="G1098" t="n">
-        <v>-17473639.50709534</v>
-      </c>
-      <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1098" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1098" t="inlineStr"/>
-    </row>
-    <row r="1099">
-      <c r="A1099" s="1" t="n">
-        <v>1097</v>
-      </c>
-      <c r="B1099" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="C1099" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D1099" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="E1099" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F1099" t="n">
-        <v>1080.602</v>
-      </c>
-      <c r="G1099" t="n">
-        <v>-17472558.90509534</v>
-      </c>
-      <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1099" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1099" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1099" t="inlineStr"/>
-    </row>
-    <row r="1100">
-      <c r="A1100" s="1" t="n">
-        <v>1098</v>
-      </c>
-      <c r="B1100" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="C1100" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="D1100" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="E1100" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="F1100" t="n">
-        <v>3135.762</v>
-      </c>
-      <c r="G1100" t="n">
-        <v>-17472558.90509534</v>
-      </c>
-      <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1100" t="inlineStr"/>
-    </row>
-    <row r="1101">
-      <c r="A1101" s="1" t="n">
-        <v>1099</v>
-      </c>
-      <c r="B1101" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="C1101" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="D1101" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="E1101" t="n">
-        <v>3.949</v>
-      </c>
-      <c r="F1101" t="n">
-        <v>2261.555</v>
-      </c>
-      <c r="G1101" t="n">
-        <v>-17474820.46009533</v>
-      </c>
-      <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1101" t="inlineStr"/>
-    </row>
-    <row r="1102">
-      <c r="A1102" s="1" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B1102" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1102" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1102" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1102" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1102" t="n">
-        <v>129.113</v>
-      </c>
-      <c r="G1102" t="n">
-        <v>-17474691.34709533</v>
-      </c>
-      <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1102" t="inlineStr"/>
-    </row>
-    <row r="1103">
-      <c r="A1103" s="1" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B1103" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1103" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1103" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1103" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1103" t="n">
-        <v>2775.979</v>
-      </c>
-      <c r="G1103" t="n">
-        <v>-17471915.36809533</v>
-      </c>
-      <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1103" t="inlineStr"/>
-    </row>
-    <row r="1104">
-      <c r="A1104" s="1" t="n">
-        <v>1102</v>
-      </c>
-      <c r="B1104" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1104" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1104" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1104" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1104" t="n">
-        <v>2562.235</v>
-      </c>
-      <c r="G1104" t="n">
-        <v>-17474477.60309533</v>
-      </c>
-      <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1104" t="inlineStr"/>
-    </row>
-    <row r="1105">
-      <c r="A1105" s="1" t="n">
-        <v>1103</v>
-      </c>
-      <c r="B1105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1105" t="n">
-        <v>2920.124</v>
-      </c>
-      <c r="G1105" t="n">
-        <v>-17474477.60309533</v>
-      </c>
-      <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" s="1" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B1106" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1106" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1106" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1106" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1106" t="n">
-        <v>3324.68</v>
-      </c>
-      <c r="G1106" t="n">
-        <v>-17471152.92309533</v>
-      </c>
-      <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" s="1" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B1107" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1107" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1107" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="E1107" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1107" t="n">
-        <v>473.514</v>
-      </c>
-      <c r="G1107" t="n">
-        <v>-17471152.92309533</v>
-      </c>
-      <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" s="1" t="n">
-        <v>1106</v>
-      </c>
-      <c r="B1108" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1108" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="D1108" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="E1108" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1108" t="n">
-        <v>634.808</v>
-      </c>
-      <c r="G1108" t="n">
-        <v>-17470518.11509534</v>
-      </c>
-      <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1108" t="inlineStr"/>
-    </row>
-    <row r="1109">
-      <c r="A1109" s="1" t="n">
-        <v>1107</v>
-      </c>
-      <c r="B1109" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1109" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1109" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1109" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1109" t="n">
-        <v>860.337</v>
-      </c>
-      <c r="G1109" t="n">
-        <v>-17471378.45209534</v>
-      </c>
-      <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1109" t="inlineStr"/>
-    </row>
-    <row r="1110">
-      <c r="A1110" s="1" t="n">
-        <v>1108</v>
-      </c>
-      <c r="B1110" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1110" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1110" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1110" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1110" t="n">
-        <v>2429.778</v>
-      </c>
-      <c r="G1110" t="n">
-        <v>-17468948.67409534</v>
-      </c>
-      <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1110" t="inlineStr"/>
-    </row>
-    <row r="1111">
-      <c r="A1111" s="1" t="n">
-        <v>1109</v>
-      </c>
-      <c r="B1111" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1111" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1111" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1111" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1111" t="n">
-        <v>1657.48</v>
-      </c>
-      <c r="G1111" t="n">
-        <v>-17467291.19409534</v>
-      </c>
-      <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1111" t="inlineStr"/>
-    </row>
-    <row r="1112">
-      <c r="A1112" s="1" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B1112" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="C1112" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="D1112" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="E1112" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="F1112" t="n">
-        <v>251.275</v>
-      </c>
-      <c r="G1112" t="n">
-        <v>-17467039.91909534</v>
-      </c>
-      <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1112" t="inlineStr"/>
-    </row>
-    <row r="1113">
-      <c r="A1113" s="1" t="n">
-        <v>1111</v>
-      </c>
-      <c r="B1113" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1113" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1113" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1113" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1113" t="n">
-        <v>455.173</v>
-      </c>
-      <c r="G1113" t="n">
-        <v>-17467495.09209534</v>
-      </c>
-      <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" s="1" t="n">
-        <v>1112</v>
-      </c>
-      <c r="B1114" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1114" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="D1114" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1114" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1114" t="n">
-        <v>1809.02</v>
-      </c>
-      <c r="G1114" t="n">
-        <v>-17469304.11209534</v>
-      </c>
-      <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B1115" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1115" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1115" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1115" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1115" t="n">
-        <v>1436.006</v>
-      </c>
-      <c r="G1115" t="n">
-        <v>-17470740.11809534</v>
-      </c>
-      <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" s="1" t="n">
-        <v>1114</v>
-      </c>
-      <c r="B1116" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1116" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="D1116" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="E1116" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1116" t="n">
-        <v>2702.152</v>
-      </c>
-      <c r="G1116" t="n">
-        <v>-17468037.96609534</v>
-      </c>
-      <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" s="1" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B1117" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1117" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1117" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1117" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1117" t="n">
-        <v>280.867</v>
-      </c>
-      <c r="G1117" t="n">
-        <v>-17468318.83309534</v>
-      </c>
-      <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" s="1" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1118" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1118" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1118" t="n">
-        <v>2885.78</v>
-      </c>
-      <c r="G1118" t="n">
-        <v>-17465433.05309534</v>
-      </c>
-      <c r="H1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J1118" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" s="1" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1119" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1119" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1119" t="n">
-        <v>2354.231</v>
-      </c>
-      <c r="G1119" t="n">
-        <v>-17463078.82209534</v>
-      </c>
-      <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" s="1" t="n">
-        <v>1118</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1120" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="F1120" t="n">
-        <v>2847.204</v>
-      </c>
-      <c r="G1120" t="n">
-        <v>-17465926.02609534</v>
-      </c>
-      <c r="H1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="J1120" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1121" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1121" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1121" t="n">
-        <v>7361.24</v>
-      </c>
-      <c r="G1121" t="n">
-        <v>-17458564.78609534</v>
-      </c>
-      <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1122" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1122" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="F1122" t="n">
-        <v>415.213</v>
-      </c>
-      <c r="G1122" t="n">
-        <v>-17458979.99909534</v>
-      </c>
-      <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>1121</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1123" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1123" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1123" t="n">
-        <v>884.236</v>
-      </c>
-      <c r="G1123" t="n">
-        <v>-17458095.76309534</v>
-      </c>
-      <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>1122</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1124" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>1611.28</v>
-      </c>
-      <c r="G1124" t="n">
-        <v>-17458095.76309534</v>
-      </c>
-      <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>1123</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1125" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1125" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1125" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1125" t="n">
-        <v>5120.471</v>
-      </c>
-      <c r="G1125" t="n">
-        <v>-17458095.76309534</v>
-      </c>
-      <c r="H1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1125" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="J1125" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" s="1" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B1126" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1126" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1126" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1126" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="F1126" t="n">
-        <v>3005.715</v>
-      </c>
-      <c r="G1126" t="n">
-        <v>-17461101.47809534</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1126" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="J1126" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" s="1" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B1127" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1127" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="D1127" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1127" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>128.983</v>
-      </c>
-      <c r="G1127" t="n">
-        <v>-17460972.49509534</v>
-      </c>
-      <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J1127" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1127" t="inlineStr"/>
-    </row>
-    <row r="1128">
-      <c r="A1128" s="1" t="n">
-        <v>1126</v>
-      </c>
-      <c r="B1128" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1128" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1128" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1128" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1128" t="n">
-        <v>252141.7989</v>
-      </c>
-      <c r="G1128" t="n">
-        <v>-17713114.29399534</v>
-      </c>
-      <c r="H1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="J1128" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1" t="n">
-        <v>1127</v>
-      </c>
-      <c r="B1129" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1129" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1129" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1129" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>2295.689</v>
-      </c>
-      <c r="G1129" t="n">
-        <v>-17713114.29399534</v>
-      </c>
-      <c r="H1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1129" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1" t="n">
-        <v>1128</v>
-      </c>
-      <c r="B1130" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1130" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1130" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1130" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>2107.758</v>
-      </c>
-      <c r="G1130" t="n">
-        <v>-17711006.53599534</v>
-      </c>
-      <c r="H1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1130" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1130" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1" t="n">
-        <v>1129</v>
-      </c>
-      <c r="B1131" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1131" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1131" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1131" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1131" t="n">
-        <v>2663.252</v>
-      </c>
-      <c r="G1131" t="n">
-        <v>-17713669.78799534</v>
-      </c>
-      <c r="H1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J1131" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" s="1" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B1132" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1132" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1132" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1132" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1132" t="n">
-        <v>146.973</v>
-      </c>
-      <c r="G1132" t="n">
-        <v>-17713669.78799534</v>
-      </c>
-      <c r="H1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1132" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1132" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" s="1" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B1133" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1133" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1133" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1133" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>1243.109</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>-17713669.78799534</v>
-      </c>
-      <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1133" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B1134" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C1134" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="D1134" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="E1134" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="F1134" t="n">
-        <v>1252.819</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>-17713669.78799534</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1134" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1134" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" s="1" t="n">
-        <v>1133</v>
-      </c>
-      <c r="B1135" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="C1135" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="D1135" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="E1135" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="F1135" t="n">
-        <v>1427.871</v>
-      </c>
-      <c r="G1135" t="n">
-        <v>-17712241.91699534</v>
-      </c>
-      <c r="H1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1135" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J1135" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>4612.717</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>-17707629.19999534</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1136" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J1136" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>327.773</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-17707629.19999534</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J1137" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="1" t="n">
-        <v>1136</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>3.954</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>741820.5898082954</v>
-      </c>
-      <c r="G1138" t="n">
-        <v>-18449449.78980364</v>
-      </c>
-      <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="J1138" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="1" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>3.942</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>3.942</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>26538.6218</v>
-      </c>
-      <c r="G1139" t="n">
-        <v>-18475988.41160364</v>
-      </c>
-      <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="1" t="n">
-        <v>1138</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>4332.321</v>
-      </c>
-      <c r="G1140" t="n">
-        <v>-18471656.09060364</v>
-      </c>
-      <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" s="1" t="n">
-        <v>1139</v>
-      </c>
-      <c r="B1141" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1141" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D1141" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="E1141" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1141" t="n">
-        <v>2411.925</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>-18469244.16560364</v>
-      </c>
-      <c r="H1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="J1141" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B1142" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="C1142" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="D1142" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="E1142" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="F1142" t="n">
-        <v>237.171</v>
-      </c>
-      <c r="G1142" t="n">
-        <v>-18469481.33660364</v>
-      </c>
-      <c r="H1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1142" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="J1142" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1142" t="inlineStr"/>
-    </row>
-    <row r="1143">
-      <c r="A1143" s="1" t="n">
-        <v>1141</v>
-      </c>
-      <c r="B1143" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1143" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="D1143" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="E1143" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1143" t="n">
-        <v>1769.346</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>-18467711.99060364</v>
-      </c>
-      <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="J1143" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" s="1" t="n">
-        <v>1142</v>
-      </c>
-      <c r="B1144" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1144" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D1144" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="E1144" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1144" t="n">
-        <v>1307.446</v>
-      </c>
-      <c r="G1144" t="n">
-        <v>-18469019.43660364</v>
-      </c>
-      <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="J1144" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" s="1" t="n">
-        <v>1143</v>
-      </c>
-      <c r="B1145" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="C1145" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="D1145" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="E1145" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="F1145" t="n">
-        <v>1851.587</v>
-      </c>
-      <c r="G1145" t="n">
-        <v>-18470871.02360364</v>
-      </c>
-      <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="J1145" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" s="1" t="n">
-        <v>1144</v>
-      </c>
-      <c r="B1146" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1146" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D1146" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="E1146" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1146" t="n">
-        <v>2178.974</v>
-      </c>
-      <c r="G1146" t="n">
-        <v>-18468692.04960364</v>
-      </c>
-      <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="J1146" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" s="1" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B1147" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1147" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D1147" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="E1147" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>381.35</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>-18468692.04960364</v>
-      </c>
-      <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="J1147" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" s="1" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B1148" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="C1148" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="D1148" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="E1148" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="F1148" t="n">
-        <v>449.976</v>
-      </c>
-      <c r="G1148" t="n">
-        <v>-18468242.07360364</v>
-      </c>
-      <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="J1148" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>787.657</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-18469029.73060364</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="J1149" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>962.655</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-18469029.73060364</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="J1150" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>4536.06</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-18464493.67060364</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="J1151" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>215.689</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-18464709.35960364</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="J1152" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>550.855</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-18464158.50460364</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="J1153" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>952.409</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-18465110.91360364</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="J1154" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>3.947</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>3.947</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>2609.461</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-18462501.45260364</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="J1155" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>1925.504</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-18464426.95660364</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>3.947</v>
-      </c>
-      <c r="J1156" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="1" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B1157" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="C1157" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="D1157" t="n">
-        <v>3.953</v>
-      </c>
-      <c r="E1157" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="F1157" t="n">
-        <v>2393.2773</v>
-      </c>
-      <c r="G1157" t="n">
-        <v>-18466820.23390364</v>
-      </c>
-      <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="J1157" t="n">
-        <v>3.952</v>
-      </c>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39211,13 +38635,11 @@
         <v>-18463165.37290364</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>3.943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -39252,13 +38674,11 @@
         <v>-18460513.41590364</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -39293,13 +38713,11 @@
         <v>-18463319.46190364</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
+      <c r="J1160" t="n">
         <v>3.945</v>
-      </c>
-      <c r="J1160" t="n">
-        <v>3.952</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -39334,13 +38752,11 @@
         <v>-18460272.41790364</v>
       </c>
       <c r="H1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -39375,13 +38791,11 @@
         <v>-18462476.90690364</v>
       </c>
       <c r="H1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
+      <c r="J1162" t="n">
         <v>3.945</v>
-      </c>
-      <c r="J1162" t="n">
-        <v>3.952</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39422,7 +38836,7 @@
         <v>3.944</v>
       </c>
       <c r="J1163" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39463,7 +38877,7 @@
         <v>3.944</v>
       </c>
       <c r="J1164" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39498,13 +38912,11 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1165" t="inlineStr"/>
+      <c r="J1165" t="n">
         <v>3.945</v>
-      </c>
-      <c r="J1165" t="n">
-        <v>3.952</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39539,13 +38951,11 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1166" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39586,7 +38996,7 @@
         <v>3.944</v>
       </c>
       <c r="J1167" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39627,7 +39037,7 @@
         <v>3.945</v>
       </c>
       <c r="J1168" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39662,13 +39072,11 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1169" t="n">
-        <v>3.946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39709,7 +39117,7 @@
         <v>3.944</v>
       </c>
       <c r="J1170" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39750,7 +39158,7 @@
         <v>3.944</v>
       </c>
       <c r="J1171" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39791,7 +39199,7 @@
         <v>3.944</v>
       </c>
       <c r="J1172" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39832,7 +39240,7 @@
         <v>3.944</v>
       </c>
       <c r="J1173" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39873,7 +39281,7 @@
         <v>3.946</v>
       </c>
       <c r="J1174" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39914,7 +39322,7 @@
         <v>3.945</v>
       </c>
       <c r="J1175" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39955,7 +39363,7 @@
         <v>3.944</v>
       </c>
       <c r="J1176" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39996,7 +39404,7 @@
         <v>3.946</v>
       </c>
       <c r="J1177" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -40037,7 +39445,7 @@
         <v>3.945</v>
       </c>
       <c r="J1178" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -40078,7 +39486,7 @@
         <v>3.944</v>
       </c>
       <c r="J1179" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40119,7 +39527,7 @@
         <v>3.945</v>
       </c>
       <c r="J1180" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40160,7 +39568,7 @@
         <v>3.945</v>
       </c>
       <c r="J1181" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40201,7 +39609,7 @@
         <v>3.946</v>
       </c>
       <c r="J1182" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -40242,7 +39650,7 @@
         <v>3.945</v>
       </c>
       <c r="J1183" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -40283,7 +39691,7 @@
         <v>3.946</v>
       </c>
       <c r="J1184" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -40324,7 +39732,7 @@
         <v>3.946</v>
       </c>
       <c r="J1185" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -40365,7 +39773,7 @@
         <v>3.945</v>
       </c>
       <c r="J1186" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -40406,7 +39814,7 @@
         <v>3.945</v>
       </c>
       <c r="J1187" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40447,7 +39855,7 @@
         <v>3.945</v>
       </c>
       <c r="J1188" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40488,7 +39896,7 @@
         <v>3.946</v>
       </c>
       <c r="J1189" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40529,7 +39937,7 @@
         <v>3.945</v>
       </c>
       <c r="J1190" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40570,7 +39978,7 @@
         <v>3.945</v>
       </c>
       <c r="J1191" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40611,7 +40019,7 @@
         <v>3.945</v>
       </c>
       <c r="J1192" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40652,7 +40060,7 @@
         <v>3.945</v>
       </c>
       <c r="J1193" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40693,7 +40101,7 @@
         <v>3.945</v>
       </c>
       <c r="J1194" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40734,7 +40142,7 @@
         <v>3.946</v>
       </c>
       <c r="J1195" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40775,7 +40183,7 @@
         <v>3.947</v>
       </c>
       <c r="J1196" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40816,7 +40224,7 @@
         <v>3.948</v>
       </c>
       <c r="J1197" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40857,7 +40265,7 @@
         <v>3.949</v>
       </c>
       <c r="J1198" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40898,7 +40306,7 @@
         <v>3.951</v>
       </c>
       <c r="J1199" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40939,7 +40347,7 @@
         <v>3.952</v>
       </c>
       <c r="J1200" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40980,7 +40388,7 @@
         <v>3.951</v>
       </c>
       <c r="J1201" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -41021,7 +40429,7 @@
         <v>3.952</v>
       </c>
       <c r="J1202" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -41062,7 +40470,7 @@
         <v>3.95</v>
       </c>
       <c r="J1203" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -41103,7 +40511,7 @@
         <v>3.949</v>
       </c>
       <c r="J1204" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -41144,7 +40552,7 @@
         <v>3.948</v>
       </c>
       <c r="J1205" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -41185,7 +40593,7 @@
         <v>3.949</v>
       </c>
       <c r="J1206" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41226,7 +40634,7 @@
         <v>3.947</v>
       </c>
       <c r="J1207" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -41267,7 +40675,7 @@
         <v>3.946</v>
       </c>
       <c r="J1208" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -41308,7 +40716,7 @@
         <v>3.947</v>
       </c>
       <c r="J1209" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -41349,7 +40757,7 @@
         <v>3.949</v>
       </c>
       <c r="J1210" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -41390,7 +40798,7 @@
         <v>3.948</v>
       </c>
       <c r="J1211" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41431,7 +40839,7 @@
         <v>3.947</v>
       </c>
       <c r="J1212" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41472,7 +40880,7 @@
         <v>3.948</v>
       </c>
       <c r="J1213" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -41513,7 +40921,7 @@
         <v>3.946</v>
       </c>
       <c r="J1214" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -41554,7 +40962,7 @@
         <v>3.946</v>
       </c>
       <c r="J1215" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41595,7 +41003,7 @@
         <v>3.946</v>
       </c>
       <c r="J1216" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -41636,7 +41044,7 @@
         <v>3.947</v>
       </c>
       <c r="J1217" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -41677,7 +41085,7 @@
         <v>3.947</v>
       </c>
       <c r="J1218" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41718,7 +41126,7 @@
         <v>3.946</v>
       </c>
       <c r="J1219" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -41759,7 +41167,7 @@
         <v>3.947</v>
       </c>
       <c r="J1220" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -41800,7 +41208,7 @@
         <v>3.946</v>
       </c>
       <c r="J1221" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41841,7 +41249,7 @@
         <v>3.946</v>
       </c>
       <c r="J1222" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -41882,7 +41290,7 @@
         <v>3.946</v>
       </c>
       <c r="J1223" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41923,7 +41331,7 @@
         <v>3.947</v>
       </c>
       <c r="J1224" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -41964,7 +41372,7 @@
         <v>3.947</v>
       </c>
       <c r="J1225" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -42005,7 +41413,7 @@
         <v>3.948</v>
       </c>
       <c r="J1226" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -42046,7 +41454,7 @@
         <v>3.947</v>
       </c>
       <c r="J1227" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -42087,7 +41495,7 @@
         <v>3.948</v>
       </c>
       <c r="J1228" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -42128,7 +41536,7 @@
         <v>3.948</v>
       </c>
       <c r="J1229" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -42169,7 +41577,7 @@
         <v>3.949</v>
       </c>
       <c r="J1230" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -42210,7 +41618,7 @@
         <v>3.948</v>
       </c>
       <c r="J1231" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -42251,7 +41659,7 @@
         <v>3.948</v>
       </c>
       <c r="J1232" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -42292,7 +41700,7 @@
         <v>3.947</v>
       </c>
       <c r="J1233" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -42333,7 +41741,7 @@
         <v>3.946</v>
       </c>
       <c r="J1234" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -42374,7 +41782,7 @@
         <v>3.946</v>
       </c>
       <c r="J1235" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -42415,7 +41823,7 @@
         <v>3.946</v>
       </c>
       <c r="J1236" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -42456,7 +41864,7 @@
         <v>3.947</v>
       </c>
       <c r="J1237" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -42497,7 +41905,7 @@
         <v>3.948</v>
       </c>
       <c r="J1238" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -42538,7 +41946,7 @@
         <v>3.947</v>
       </c>
       <c r="J1239" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -42579,7 +41987,7 @@
         <v>3.946</v>
       </c>
       <c r="J1240" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -42620,7 +42028,7 @@
         <v>3.947</v>
       </c>
       <c r="J1241" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -42661,7 +42069,7 @@
         <v>3.948</v>
       </c>
       <c r="J1242" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -42702,7 +42110,7 @@
         <v>3.95</v>
       </c>
       <c r="J1243" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -42743,7 +42151,7 @@
         <v>3.951</v>
       </c>
       <c r="J1244" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -42784,7 +42192,7 @@
         <v>3.95</v>
       </c>
       <c r="J1245" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -42825,7 +42233,7 @@
         <v>3.951</v>
       </c>
       <c r="J1246" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -42866,7 +42274,7 @@
         <v>3.951</v>
       </c>
       <c r="J1247" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42907,7 +42315,7 @@
         <v>3.952</v>
       </c>
       <c r="J1248" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42948,7 +42356,7 @@
         <v>3.953</v>
       </c>
       <c r="J1249" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42989,7 +42397,7 @@
         <v>3.953</v>
       </c>
       <c r="J1250" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -43030,7 +42438,7 @@
         <v>3.953</v>
       </c>
       <c r="J1251" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -43071,7 +42479,7 @@
         <v>3.952</v>
       </c>
       <c r="J1252" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -43112,7 +42520,7 @@
         <v>3.952</v>
       </c>
       <c r="J1253" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -43153,7 +42561,7 @@
         <v>3.949</v>
       </c>
       <c r="J1254" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -43194,7 +42602,7 @@
         <v>3.945</v>
       </c>
       <c r="J1255" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -43229,11 +42637,13 @@
         <v>-19975629.93290364</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1256" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -43268,11 +42678,13 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>3.943</v>
+      </c>
       <c r="J1257" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -43307,11 +42719,13 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1258" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -43346,11 +42760,13 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1259" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -43391,7 +42807,7 @@
         <v>3.943</v>
       </c>
       <c r="J1260" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -43432,7 +42848,7 @@
         <v>3.943</v>
       </c>
       <c r="J1261" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -43473,7 +42889,7 @@
         <v>3.943</v>
       </c>
       <c r="J1262" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -43514,7 +42930,7 @@
         <v>3.942</v>
       </c>
       <c r="J1263" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -43555,7 +42971,7 @@
         <v>3.942</v>
       </c>
       <c r="J1264" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -43596,7 +43012,7 @@
         <v>3.942</v>
       </c>
       <c r="J1265" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43637,7 +43053,7 @@
         <v>3.942</v>
       </c>
       <c r="J1266" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43672,13 +43088,11 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1267" t="n">
-        <v>3.942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43719,7 +43133,7 @@
         <v>3.942</v>
       </c>
       <c r="J1268" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43760,7 +43174,7 @@
         <v>3.941</v>
       </c>
       <c r="J1269" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43801,7 +43215,7 @@
         <v>3.942</v>
       </c>
       <c r="J1270" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43842,7 +43256,7 @@
         <v>3.942</v>
       </c>
       <c r="J1271" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43883,7 +43297,7 @@
         <v>3.942</v>
       </c>
       <c r="J1272" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -43924,7 +43338,7 @@
         <v>3.942</v>
       </c>
       <c r="J1273" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43965,7 +43379,7 @@
         <v>3.941</v>
       </c>
       <c r="J1274" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -44004,7 +43418,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -44043,7 +43457,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -44082,7 +43496,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -44121,7 +43535,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -44160,7 +43574,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -44199,7 +43613,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -44238,7 +43652,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -44277,7 +43691,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -44316,7 +43730,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -44355,7 +43769,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -44394,7 +43808,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -44433,7 +43847,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -44472,7 +43886,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -44511,7 +43925,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -44550,7 +43964,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>3.952</v>
+        <v>3.945</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
@@ -44563,6 +43977,6 @@
       <c r="M1289" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-13 BackTest TMTG.xlsx
@@ -16291,7 +16291,7 @@
         <v>-1853548.495063318</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-1839106.411063318</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-1813483.231063318</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-1742508.865063318</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1751162.790063318</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1712743.507063318</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-525708.2943756364</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-490753.8606756364</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-541686.5556756364</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>649408.0105243636</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>371178.0529243636</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>599177.2489243635</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>584775.5779243635</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>555265.8059243636</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>667218.4257243635</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>725987.0194243635</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>1116441.697124363</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>905277.3945243633</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>892592.4835243634</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>928366.0515243633</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>950180.4085243633</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>921327.2395243633</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>910973.4285243633</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>717780.272012045</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>665643.032012045</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>695494.169012045</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>705403.516012045</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>649318.724012045</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>591740.8530120449</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>466709.3280120449</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>477845.1840120449</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>516584.1210120449</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>491718.1610120449</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>491718.1610120449</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>404383.3482120449</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>404383.3482120449</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>428563.7892120449</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>487628.2782120449</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>274338.9991120448</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>320929.2791120448</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>281661.3956120448</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-8469032.470832812</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-8269870.246032812</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-8322748.739632811</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-8350823.083032811</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-7131893.878832811</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-7133923.354832811</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -37279,10 +37279,14 @@
         <v>-17465433.05309534</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>3.951</v>
+      </c>
       <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
@@ -37312,11 +37316,19 @@
         <v>-17463078.82209534</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +37357,19 @@
         <v>-17465926.02609534</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37411,10 +37431,14 @@
         <v>-17458979.99909534</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>3.954</v>
+      </c>
       <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
@@ -37444,11 +37468,19 @@
         <v>-17458095.76309534</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37477,11 +37509,19 @@
         <v>-17458095.76309534</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37543,10 +37583,14 @@
         <v>-17461101.47809534</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>3.954</v>
+      </c>
       <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
@@ -37576,11 +37620,19 @@
         <v>-17460972.49509534</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37609,11 +37661,19 @@
         <v>-17713114.29399534</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37645,8 +37705,14 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37678,8 +37744,14 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37708,11 +37780,19 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37741,11 +37821,19 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37774,11 +37862,19 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37807,11 +37903,19 @@
         <v>-17713669.78799534</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37840,11 +37944,19 @@
         <v>-17712241.91699534</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37873,11 +37985,19 @@
         <v>-17707629.19999534</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37906,11 +38026,19 @@
         <v>-17707629.19999534</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37939,11 +38067,19 @@
         <v>-18449449.78980364</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37975,8 +38111,14 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38008,8 +38150,14 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38041,8 +38189,14 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38071,11 +38225,19 @@
         <v>-18469481.33660364</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38104,11 +38266,19 @@
         <v>-18467711.99060364</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38137,11 +38307,19 @@
         <v>-18469019.43660364</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38170,11 +38348,19 @@
         <v>-18470871.02360364</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38203,11 +38389,19 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38236,11 +38430,19 @@
         <v>-18468692.04960364</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38269,11 +38471,19 @@
         <v>-18468242.07360364</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +38512,19 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +38553,19 @@
         <v>-18469029.73060364</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38374,9 +38600,13 @@
         <v>3.944</v>
       </c>
       <c r="J1151" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="K1151" t="inlineStr"/>
+        <v>3.954</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38405,15 +38635,17 @@
         <v>-18464709.35960364</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1152" t="n">
-        <v>3.944</v>
+        <v>3.954</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1152" t="n">
@@ -38444,15 +38676,17 @@
         <v>-18464158.50460364</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1153" t="n">
-        <v>3.944</v>
+        <v>3.954</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1153" t="n">
@@ -38483,11 +38717,19 @@
         <v>-18465110.91360364</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38522,9 +38764,13 @@
         <v>3.945</v>
       </c>
       <c r="J1155" t="n">
-        <v>3.945</v>
-      </c>
-      <c r="K1155" t="inlineStr"/>
+        <v>3.954</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38559,11 +38805,11 @@
         <v>3.947</v>
       </c>
       <c r="J1156" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1156" t="n">
@@ -38600,11 +38846,11 @@
         <v>3.946</v>
       </c>
       <c r="J1157" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1157" t="n">
@@ -38635,11 +38881,13 @@
         <v>-18463165.37290364</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>3.943</v>
+      </c>
       <c r="J1158" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -38674,11 +38922,13 @@
         <v>-18460513.41590364</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1159" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -38713,11 +38963,13 @@
         <v>-18463319.46190364</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1160" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -38752,11 +39004,13 @@
         <v>-18460272.41790364</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1161" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -38791,11 +39045,13 @@
         <v>-18462476.90690364</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1162" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -38836,7 +39092,7 @@
         <v>3.944</v>
       </c>
       <c r="J1163" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -38877,7 +39133,7 @@
         <v>3.944</v>
       </c>
       <c r="J1164" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -38912,11 +39168,13 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>3.945</v>
+      </c>
       <c r="J1165" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -38951,11 +39209,13 @@
         <v>-18467654.99590364</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>3.944</v>
+      </c>
       <c r="J1166" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -38996,7 +39256,7 @@
         <v>3.944</v>
       </c>
       <c r="J1167" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39037,7 +39297,7 @@
         <v>3.945</v>
       </c>
       <c r="J1168" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39072,11 +39332,13 @@
         <v>-18469150.58890364</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>3.946</v>
+      </c>
       <c r="J1169" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39117,7 +39379,7 @@
         <v>3.944</v>
       </c>
       <c r="J1170" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39158,7 +39420,7 @@
         <v>3.944</v>
       </c>
       <c r="J1171" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39199,7 +39461,7 @@
         <v>3.944</v>
       </c>
       <c r="J1172" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39240,7 +39502,7 @@
         <v>3.944</v>
       </c>
       <c r="J1173" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39281,7 +39543,7 @@
         <v>3.946</v>
       </c>
       <c r="J1174" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39322,7 +39584,7 @@
         <v>3.945</v>
       </c>
       <c r="J1175" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39363,7 +39625,7 @@
         <v>3.944</v>
       </c>
       <c r="J1176" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39404,7 +39666,7 @@
         <v>3.946</v>
       </c>
       <c r="J1177" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39445,7 +39707,7 @@
         <v>3.945</v>
       </c>
       <c r="J1178" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39486,7 +39748,7 @@
         <v>3.944</v>
       </c>
       <c r="J1179" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -39527,7 +39789,7 @@
         <v>3.945</v>
       </c>
       <c r="J1180" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39568,7 +39830,7 @@
         <v>3.945</v>
       </c>
       <c r="J1181" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -39609,7 +39871,7 @@
         <v>3.946</v>
       </c>
       <c r="J1182" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -39650,7 +39912,7 @@
         <v>3.945</v>
       </c>
       <c r="J1183" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -39691,7 +39953,7 @@
         <v>3.946</v>
       </c>
       <c r="J1184" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -39732,7 +39994,7 @@
         <v>3.946</v>
       </c>
       <c r="J1185" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39773,7 +40035,7 @@
         <v>3.945</v>
       </c>
       <c r="J1186" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -39814,7 +40076,7 @@
         <v>3.945</v>
       </c>
       <c r="J1187" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -39855,7 +40117,7 @@
         <v>3.945</v>
       </c>
       <c r="J1188" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -39896,7 +40158,7 @@
         <v>3.946</v>
       </c>
       <c r="J1189" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -39937,7 +40199,7 @@
         <v>3.945</v>
       </c>
       <c r="J1190" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -39978,7 +40240,7 @@
         <v>3.945</v>
       </c>
       <c r="J1191" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40019,7 +40281,7 @@
         <v>3.945</v>
       </c>
       <c r="J1192" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40060,7 +40322,7 @@
         <v>3.945</v>
       </c>
       <c r="J1193" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40101,7 +40363,7 @@
         <v>3.945</v>
       </c>
       <c r="J1194" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40142,7 +40404,7 @@
         <v>3.946</v>
       </c>
       <c r="J1195" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40183,7 +40445,7 @@
         <v>3.947</v>
       </c>
       <c r="J1196" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40224,7 +40486,7 @@
         <v>3.948</v>
       </c>
       <c r="J1197" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40265,7 +40527,7 @@
         <v>3.949</v>
       </c>
       <c r="J1198" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40306,7 +40568,7 @@
         <v>3.951</v>
       </c>
       <c r="J1199" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40347,7 +40609,7 @@
         <v>3.952</v>
       </c>
       <c r="J1200" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40388,7 +40650,7 @@
         <v>3.951</v>
       </c>
       <c r="J1201" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40429,7 +40691,7 @@
         <v>3.952</v>
       </c>
       <c r="J1202" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40470,7 +40732,7 @@
         <v>3.95</v>
       </c>
       <c r="J1203" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40511,7 +40773,7 @@
         <v>3.949</v>
       </c>
       <c r="J1204" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40552,7 +40814,7 @@
         <v>3.948</v>
       </c>
       <c r="J1205" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40593,7 +40855,7 @@
         <v>3.949</v>
       </c>
       <c r="J1206" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -40634,7 +40896,7 @@
         <v>3.947</v>
       </c>
       <c r="J1207" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -40675,7 +40937,7 @@
         <v>3.946</v>
       </c>
       <c r="J1208" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40716,7 +40978,7 @@
         <v>3.947</v>
       </c>
       <c r="J1209" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -40757,7 +41019,7 @@
         <v>3.949</v>
       </c>
       <c r="J1210" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40798,7 +41060,7 @@
         <v>3.948</v>
       </c>
       <c r="J1211" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40839,7 +41101,7 @@
         <v>3.947</v>
       </c>
       <c r="J1212" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -40880,7 +41142,7 @@
         <v>3.948</v>
       </c>
       <c r="J1213" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -40921,7 +41183,7 @@
         <v>3.946</v>
       </c>
       <c r="J1214" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -40962,7 +41224,7 @@
         <v>3.946</v>
       </c>
       <c r="J1215" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41003,7 +41265,7 @@
         <v>3.946</v>
       </c>
       <c r="J1216" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -41044,7 +41306,7 @@
         <v>3.947</v>
       </c>
       <c r="J1217" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -41085,7 +41347,7 @@
         <v>3.947</v>
       </c>
       <c r="J1218" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41126,7 +41388,7 @@
         <v>3.946</v>
       </c>
       <c r="J1219" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -41167,7 +41429,7 @@
         <v>3.947</v>
       </c>
       <c r="J1220" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -41208,7 +41470,7 @@
         <v>3.946</v>
       </c>
       <c r="J1221" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41249,7 +41511,7 @@
         <v>3.946</v>
       </c>
       <c r="J1222" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -41290,7 +41552,7 @@
         <v>3.946</v>
       </c>
       <c r="J1223" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41331,7 +41593,7 @@
         <v>3.947</v>
       </c>
       <c r="J1224" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -41372,7 +41634,7 @@
         <v>3.947</v>
       </c>
       <c r="J1225" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -41413,7 +41675,7 @@
         <v>3.948</v>
       </c>
       <c r="J1226" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -41454,7 +41716,7 @@
         <v>3.947</v>
       </c>
       <c r="J1227" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41495,7 +41757,7 @@
         <v>3.948</v>
       </c>
       <c r="J1228" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -41536,7 +41798,7 @@
         <v>3.948</v>
       </c>
       <c r="J1229" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -41577,7 +41839,7 @@
         <v>3.949</v>
       </c>
       <c r="J1230" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41618,7 +41880,7 @@
         <v>3.948</v>
       </c>
       <c r="J1231" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41659,7 +41921,7 @@
         <v>3.948</v>
       </c>
       <c r="J1232" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41700,7 +41962,7 @@
         <v>3.947</v>
       </c>
       <c r="J1233" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41741,7 +42003,7 @@
         <v>3.946</v>
       </c>
       <c r="J1234" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41782,7 +42044,7 @@
         <v>3.946</v>
       </c>
       <c r="J1235" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41823,7 +42085,7 @@
         <v>3.946</v>
       </c>
       <c r="J1236" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -41864,7 +42126,7 @@
         <v>3.947</v>
       </c>
       <c r="J1237" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -41905,7 +42167,7 @@
         <v>3.948</v>
       </c>
       <c r="J1238" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41946,7 +42208,7 @@
         <v>3.947</v>
       </c>
       <c r="J1239" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41987,7 +42249,7 @@
         <v>3.946</v>
       </c>
       <c r="J1240" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -42028,7 +42290,7 @@
         <v>3.947</v>
       </c>
       <c r="J1241" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -42069,7 +42331,7 @@
         <v>3.948</v>
       </c>
       <c r="J1242" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -42110,7 +42372,7 @@
         <v>3.95</v>
       </c>
       <c r="J1243" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -42151,7 +42413,7 @@
         <v>3.951</v>
       </c>
       <c r="J1244" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -42192,7 +42454,7 @@
         <v>3.95</v>
       </c>
       <c r="J1245" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -42233,7 +42495,7 @@
         <v>3.951</v>
       </c>
       <c r="J1246" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -42274,7 +42536,7 @@
         <v>3.951</v>
       </c>
       <c r="J1247" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42315,7 +42577,7 @@
         <v>3.952</v>
       </c>
       <c r="J1248" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42356,7 +42618,7 @@
         <v>3.953</v>
       </c>
       <c r="J1249" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42397,7 +42659,7 @@
         <v>3.953</v>
       </c>
       <c r="J1250" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42438,7 +42700,7 @@
         <v>3.953</v>
       </c>
       <c r="J1251" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42479,7 +42741,7 @@
         <v>3.952</v>
       </c>
       <c r="J1252" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42520,7 +42782,7 @@
         <v>3.952</v>
       </c>
       <c r="J1253" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42561,7 +42823,7 @@
         <v>3.949</v>
       </c>
       <c r="J1254" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -42602,7 +42864,7 @@
         <v>3.945</v>
       </c>
       <c r="J1255" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42637,13 +42899,11 @@
         <v>-19975629.93290364</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42678,13 +42938,11 @@
         <v>-19932810.04890364</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>3.943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42725,7 +42983,7 @@
         <v>3.944</v>
       </c>
       <c r="J1258" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -42760,13 +43018,11 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1259" t="n">
-        <v>3.944</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -42807,7 +43063,7 @@
         <v>3.943</v>
       </c>
       <c r="J1260" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -42842,13 +43098,11 @@
         <v>-20321312.20170365</v>
       </c>
       <c r="H1261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1261" t="n">
-        <v>3.943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -42889,7 +43143,7 @@
         <v>3.943</v>
       </c>
       <c r="J1262" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -42930,7 +43184,7 @@
         <v>3.942</v>
       </c>
       <c r="J1263" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -42971,7 +43225,7 @@
         <v>3.942</v>
       </c>
       <c r="J1264" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -43012,7 +43266,7 @@
         <v>3.942</v>
       </c>
       <c r="J1265" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43053,7 +43307,7 @@
         <v>3.942</v>
       </c>
       <c r="J1266" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43088,11 +43342,13 @@
         <v>-20723375.09250364</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>3.942</v>
+      </c>
       <c r="J1267" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43133,7 +43389,7 @@
         <v>3.942</v>
       </c>
       <c r="J1268" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43174,7 +43430,7 @@
         <v>3.941</v>
       </c>
       <c r="J1269" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43215,7 +43471,7 @@
         <v>3.942</v>
       </c>
       <c r="J1270" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43256,7 +43512,7 @@
         <v>3.942</v>
       </c>
       <c r="J1271" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43297,7 +43553,7 @@
         <v>3.942</v>
       </c>
       <c r="J1272" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -43338,7 +43594,7 @@
         <v>3.942</v>
       </c>
       <c r="J1273" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43379,7 +43635,7 @@
         <v>3.941</v>
       </c>
       <c r="J1274" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1274" t="inlineStr">
         <is>
@@ -43418,7 +43674,7 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1275" t="inlineStr">
         <is>
@@ -43457,7 +43713,7 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1276" t="inlineStr">
         <is>
@@ -43496,7 +43752,7 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1277" t="inlineStr">
         <is>
@@ -43535,7 +43791,7 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1278" t="inlineStr">
         <is>
@@ -43574,7 +43830,7 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1279" t="inlineStr">
         <is>
@@ -43613,7 +43869,7 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1280" t="inlineStr">
         <is>
@@ -43652,7 +43908,7 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1281" t="inlineStr">
         <is>
@@ -43691,7 +43947,7 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1282" t="inlineStr">
         <is>
@@ -43730,7 +43986,7 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1283" t="inlineStr">
         <is>
@@ -43769,7 +44025,7 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1284" t="inlineStr">
         <is>
@@ -43808,7 +44064,7 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1285" t="inlineStr">
         <is>
@@ -43847,7 +44103,7 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1286" t="inlineStr">
         <is>
@@ -43886,7 +44142,7 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1287" t="inlineStr">
         <is>
@@ -43925,7 +44181,7 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1288" t="inlineStr">
         <is>
@@ -43964,7 +44220,7 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="n">
-        <v>3.945</v>
+        <v>3.954</v>
       </c>
       <c r="K1289" t="inlineStr">
         <is>
